--- a/pds_new_all_MA_check2.xlsx
+++ b/pds_new_all_MA_check2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AT12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,200 +360,230 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>parameter_draw</t>
+          <t>tot_keep</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>tot_rel</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tot_bsb_catch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_11</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_12</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_13</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_14</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_15</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_16</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_17</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_18</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_19</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_20</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_21</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_22</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_23</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_24</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_27</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>release_length_10</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>release_length_11</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>release_length_12</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>release_length_13</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>release_length_14</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>release_length_15</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>release_length_16</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_17</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_18</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_19</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_20</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_21</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_22</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_23</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_24</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>tot_bsb_catch</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_17</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_18</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_19</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_20</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_21</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_22</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_23</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_24</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_27</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>tot_keep_bsb</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>tot_rel_bsb</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>tot_keep_scup</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>tot_rel_scup</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_27</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_17</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_18</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_19</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_20</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_21</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_22</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_23</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_24</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_27</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>change_CS</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>observed_trips</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>n_choice_occasions</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>sim</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>period</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>state</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>alt_regs</t>
         </is>
@@ -561,82 +591,82 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9059.094322551926</v>
+        <v>4831.48795934204</v>
       </c>
       <c r="B2">
-        <v>780.733690795912</v>
+        <v>20248.09118414009</v>
       </c>
       <c r="C2">
-        <v>893.9883387126652</v>
+        <v>13314.46590367108</v>
       </c>
       <c r="D2">
-        <v>1691.925655697918</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3486.904497648044</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2582.456352542878</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2642.168792001542</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>9349.741461820733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1041.743140079847</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>618.1377317239691</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>317.4970993433573</v>
+        <v>1476.35908335493</v>
       </c>
       <c r="L2">
-        <v>629.692792042605</v>
+        <v>927.1709224194839</v>
       </c>
       <c r="M2">
-        <v>246.3555726860161</v>
+        <v>535.5996177292226</v>
       </c>
       <c r="N2">
-        <v>178.8048219929822</v>
+        <v>972.8992865095026</v>
       </c>
       <c r="O2">
-        <v>161.0450046273357</v>
+        <v>344.5782990984126</v>
       </c>
       <c r="P2">
-        <v>20.37860172604615</v>
+        <v>294.7365197662454</v>
       </c>
       <c r="Q2">
-        <v>3219.877326700192</v>
+        <v>227.6688944090515</v>
       </c>
       <c r="R2">
-        <v>21427.91878921969</v>
+        <v>47.18504360528689</v>
       </c>
       <c r="S2">
-        <v>3026.360854198427</v>
+        <v>5.290292449905227</v>
       </c>
       <c r="T2">
-        <v>5163.000166434097</v>
+        <v>829.2975247615952</v>
       </c>
       <c r="U2">
-        <v>8204.297884359748</v>
+        <v>837.8894303616063</v>
       </c>
       <c r="V2">
-        <v>2667.10477654803</v>
+        <v>1664.858669477209</v>
       </c>
       <c r="W2">
-        <v>5080.231175767868</v>
+        <v>3345.219164832923</v>
       </c>
       <c r="X2">
-        <v>6.222562478032655</v>
+        <v>2396.055883109335</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>2518.027087229983</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>8656.74342436744</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -660,109 +690,127 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>62827.44858507591</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>9059.094322551926</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>42828</v>
+        <v>5110.738707424188</v>
       </c>
       <c r="AK2">
+        <v>8203.727196246889</v>
+      </c>
+      <c r="AL2">
+        <v>2740.433832880939</v>
+      </c>
+      <c r="AM2">
+        <v>5323.374553412938</v>
+      </c>
+      <c r="AN2">
+        <v>371.0326758438868</v>
+      </c>
+      <c r="AO2">
+        <v>9140.19875039117</v>
+      </c>
+      <c r="AP2">
+        <v>42795.00000000002</v>
+      </c>
+      <c r="AQ2">
         <v>1</v>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN2">
+      <c r="AT2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>7222.194808992826</v>
+        <v>4039.90627802644</v>
       </c>
       <c r="B3">
-        <v>739.272559968443</v>
+        <v>16909.89488339469</v>
       </c>
       <c r="C3">
-        <v>754.6201683292605</v>
+        <v>11053.19266470277</v>
       </c>
       <c r="D3">
-        <v>1478.615757925262</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2845.104875634084</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2034.452397712019</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2126.693245232843</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7402.253809466341</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>794.2217692193768</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>455.805474934984</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>290.6903920559436</v>
+        <v>1225.95808384976</v>
       </c>
       <c r="L3">
-        <v>584.7232437967692</v>
+        <v>788.7369730120608</v>
       </c>
       <c r="M3">
-        <v>199.3144122608466</v>
+        <v>447.9111841006013</v>
       </c>
       <c r="N3">
-        <v>115.5484729957269</v>
+        <v>816.5772010442365</v>
       </c>
       <c r="O3">
-        <v>122.362287085951</v>
+        <v>288.728102334688</v>
       </c>
       <c r="P3">
-        <v>21.75123030417136</v>
+        <v>244.625470220304</v>
       </c>
       <c r="Q3">
-        <v>2586.410027162655</v>
+        <v>183.8474682551903</v>
       </c>
       <c r="R3">
-        <v>17381.01281426825</v>
+        <v>38.95768236484871</v>
       </c>
       <c r="S3">
-        <v>2088.033673968853</v>
+        <v>4.564112844750963</v>
       </c>
       <c r="T3">
-        <v>3953.064400374559</v>
+        <v>692.8717976880301</v>
       </c>
       <c r="U3">
-        <v>6202.613009466891</v>
+        <v>692.8251123403259</v>
       </c>
       <c r="V3">
-        <v>1975.219368389647</v>
+        <v>1386.4198261814</v>
       </c>
       <c r="W3">
-        <v>3711.790825522707</v>
+        <v>2785.763569624034</v>
       </c>
       <c r="X3">
-        <v>1.992744508885484</v>
+        <v>2022.474436317678</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>2101.121204723706</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>7228.418936519516</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -786,109 +834,127 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>36883.55720874916</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>7222.194808992826</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>34228</v>
+        <v>4226.690664994053</v>
       </c>
       <c r="AK3">
+        <v>6826.501999708712</v>
+      </c>
+      <c r="AL3">
+        <v>2274.039588976283</v>
+      </c>
+      <c r="AM3">
+        <v>4450.635815773585</v>
+      </c>
+      <c r="AN3">
+        <v>-4930.482955710334</v>
+      </c>
+      <c r="AO3">
+        <v>7588.353100165408</v>
+      </c>
+      <c r="AP3">
+        <v>35473</v>
+      </c>
+      <c r="AQ3">
         <v>1</v>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN3">
+      <c r="AT3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>16022.90947166673</v>
+        <v>8200.023366353686</v>
       </c>
       <c r="B4">
-        <v>1615.279664484098</v>
+        <v>34214.10015774358</v>
       </c>
       <c r="C4">
-        <v>1527.00384914592</v>
+        <v>22429.18037666485</v>
       </c>
       <c r="D4">
-        <v>3102.443035777284</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6357.42061553089</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4392.870583006437</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4422.092079447112</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>16235.35092845176</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1713.493872019866</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1084.215780476951</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>666.2403598586919</v>
+        <v>2483.545301706071</v>
       </c>
       <c r="L4">
-        <v>1190.389260559472</v>
+        <v>1599.206637165757</v>
       </c>
       <c r="M4">
-        <v>485.5215833953545</v>
+        <v>907.4736200247708</v>
       </c>
       <c r="N4">
-        <v>341.0297742716088</v>
+        <v>1659.541042359582</v>
       </c>
       <c r="O4">
-        <v>262.8189861064702</v>
+        <v>581.9023137089974</v>
       </c>
       <c r="P4">
-        <v>33.69913399224222</v>
+        <v>510.0768175269486</v>
       </c>
       <c r="Q4">
-        <v>5786.62799015724</v>
+        <v>371.6497039788538</v>
       </c>
       <c r="R4">
-        <v>37652.4607558435</v>
+        <v>77.47956501203377</v>
       </c>
       <c r="S4">
-        <v>5949.286154094008</v>
+        <v>9.148364870671307</v>
       </c>
       <c r="T4">
-        <v>8635.809581213915</v>
+        <v>1406.511406561859</v>
       </c>
       <c r="U4">
-        <v>14944.43288337057</v>
+        <v>1394.865381762839</v>
       </c>
       <c r="V4">
-        <v>4902.793818435637</v>
+        <v>2805.919694773197</v>
       </c>
       <c r="W4">
-        <v>9201.836507679685</v>
+        <v>5643.431818561555</v>
       </c>
       <c r="X4">
-        <v>9.219239476584065</v>
+        <v>4098.712106594931</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>4281.44609737526</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>14583.21365211394</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -912,109 +978,127 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>95605.47905188992</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>16022.90947166673</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>75943</v>
+        <v>8527.884153431318</v>
       </c>
       <c r="AK4">
+        <v>13901.29622323353</v>
+      </c>
+      <c r="AL4">
+        <v>4723.255178123205</v>
+      </c>
+      <c r="AM4">
+        <v>9118.305182626729</v>
+      </c>
+      <c r="AN4">
+        <v>3257.202388863906</v>
+      </c>
+      <c r="AO4">
+        <v>15500.7926428484</v>
+      </c>
+      <c r="AP4">
+        <v>72735.00000000004</v>
+      </c>
+      <c r="AQ4">
         <v>1</v>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN4">
+      <c r="AT4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>9619.561400750712</v>
+        <v>5117.165731229729</v>
       </c>
       <c r="B5">
-        <v>967.5267222670077</v>
+        <v>21425.27011504617</v>
       </c>
       <c r="C5">
-        <v>963.9186983321948</v>
+        <v>14029.46127339443</v>
       </c>
       <c r="D5">
-        <v>1888.96503899776</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3852.414612797232</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2635.26300168737</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2872.631173310404</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>9939.72455312129</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1113.513821876497</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>731.0220998813229</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>387.6343558437505</v>
+        <v>1548.345158993469</v>
       </c>
       <c r="L5">
-        <v>740.4872689954916</v>
+        <v>1008.342290180164</v>
       </c>
       <c r="M5">
-        <v>245.3234594779257</v>
+        <v>559.9802093738061</v>
       </c>
       <c r="N5">
-        <v>247.1747929631723</v>
+        <v>1045.147647016658</v>
       </c>
       <c r="O5">
-        <v>153.3165894578914</v>
+        <v>357.2230224084736</v>
       </c>
       <c r="P5">
-        <v>49.52378394539008</v>
+        <v>304.2366151846287</v>
       </c>
       <c r="Q5">
-        <v>3674.149278036333</v>
+        <v>244.6879819018012</v>
       </c>
       <c r="R5">
-        <v>23120.44380051326</v>
+        <v>43.67820610873881</v>
       </c>
       <c r="S5">
-        <v>3108.791830083311</v>
+        <v>5.524600061989583</v>
       </c>
       <c r="T5">
-        <v>5314.810740085697</v>
+        <v>866.5991291441724</v>
       </c>
       <c r="U5">
-        <v>8666.826897730116</v>
+        <v>880.0604446993301</v>
       </c>
       <c r="V5">
-        <v>3146.710424719176</v>
+        <v>1746.407359996293</v>
       </c>
       <c r="W5">
-        <v>5729.749723032902</v>
+        <v>3551.739204313936</v>
       </c>
       <c r="X5">
-        <v>6.15310559489229</v>
+        <v>2548.622859458289</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>2661.184871342502</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>9170.65624609165</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1038,109 +1122,127 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>57777.22847754543</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>9619.561400750712</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>45579</v>
+        <v>5363.775140087961</v>
       </c>
       <c r="AK5">
+        <v>8665.686133306466</v>
+      </c>
+      <c r="AL5">
+        <v>2944.817173554056</v>
+      </c>
+      <c r="AM5">
+        <v>5677.95920694901</v>
+      </c>
+      <c r="AN5">
+        <v>-3464.432971041828</v>
+      </c>
+      <c r="AO5">
+        <v>9680.938879083811</v>
+      </c>
+      <c r="AP5">
+        <v>45357.99999999999</v>
+      </c>
+      <c r="AQ5">
         <v>1</v>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN5">
+      <c r="AT5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>26359.43574564204</v>
+        <v>14127.74157046532</v>
       </c>
       <c r="B6">
-        <v>2550.821520515196</v>
+        <v>59158.2453892042</v>
       </c>
       <c r="C6">
-        <v>2887.576445820219</v>
+        <v>38883.90199425042</v>
       </c>
       <c r="D6">
-        <v>5185.931464538756</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>10818.59427697822</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>7722.885606603279</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8400.857031609454</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>27510.80871530915</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3211.204138444738</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1849.892509946864</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1112.001741726534</v>
+        <v>4313.777483105206</v>
       </c>
       <c r="L6">
-        <v>1995.215312158357</v>
+        <v>2772.666937996824</v>
       </c>
       <c r="M6">
-        <v>760.4298509809645</v>
+        <v>1531.301387843828</v>
       </c>
       <c r="N6">
-        <v>502.7191577324442</v>
+        <v>2837.277324329815</v>
       </c>
       <c r="O6">
-        <v>396.9021222523204</v>
+        <v>1028.806566636926</v>
       </c>
       <c r="P6">
-        <v>64.84379716563497</v>
+        <v>847.9633841591783</v>
       </c>
       <c r="Q6">
-        <v>9893.208630407855</v>
+        <v>656.4858773189916</v>
       </c>
       <c r="R6">
-        <v>65077.47506137427</v>
+        <v>126.0165835544543</v>
       </c>
       <c r="S6">
-        <v>8345.180362801231</v>
+        <v>13.44602552010046</v>
       </c>
       <c r="T6">
-        <v>14366.16060132458</v>
+        <v>2381.371078186461</v>
       </c>
       <c r="U6">
-        <v>24383.22772581979</v>
+        <v>2448.682480751071</v>
       </c>
       <c r="V6">
-        <v>7753.899289964151</v>
+        <v>4847.270705313741</v>
       </c>
       <c r="W6">
-        <v>15211.33043476531</v>
+        <v>9764.664622936763</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>7097.042120515618</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>7311.572417479378</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>25307.64196402116</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1164,109 +1266,127 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>114748.5102913265</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>26359.43574564204</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>125001</v>
+        <v>14834.67863106105</v>
       </c>
       <c r="AK6">
+        <v>24049.22336318936</v>
+      </c>
+      <c r="AL6">
+        <v>7928.679525218415</v>
+      </c>
+      <c r="AM6">
+        <v>15564.13445466011</v>
+      </c>
+      <c r="AN6">
+        <v>2436.48916606425</v>
+      </c>
+      <c r="AO6">
+        <v>26776.36796363871</v>
+      </c>
+      <c r="AP6">
+        <v>125505.9999999999</v>
+      </c>
+      <c r="AQ6">
         <v>1</v>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN6">
+      <c r="AT6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>14943.9515056175</v>
+        <v>8193.99470323485</v>
       </c>
       <c r="B7">
-        <v>1261.27265866303</v>
+        <v>34319.71449156712</v>
       </c>
       <c r="C7">
-        <v>1451.240249641593</v>
+        <v>22559.32896564504</v>
       </c>
       <c r="D7">
-        <v>2750.787790080899</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>5896.190818509003</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4246.642395191208</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>4595.190344720483</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>15634.87831207723</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1625.596498618186</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1008.453200503649</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>592.389796294953</v>
+        <v>2483.25594445149</v>
       </c>
       <c r="L7">
-        <v>1073.466872115726</v>
+        <v>1596.568358469256</v>
       </c>
       <c r="M7">
-        <v>371.9346214986913</v>
+        <v>901.6844209825079</v>
       </c>
       <c r="N7">
-        <v>302.0663049335239</v>
+        <v>1656.537058198055</v>
       </c>
       <c r="O7">
-        <v>251.630881830679</v>
+        <v>597.1322368695545</v>
       </c>
       <c r="P7">
-        <v>57.09284476548792</v>
+        <v>506.8227463142774</v>
       </c>
       <c r="Q7">
-        <v>5287.168074397544</v>
+        <v>368.3556651260567</v>
       </c>
       <c r="R7">
-        <v>35836.20256888345</v>
+        <v>75.95013932070033</v>
       </c>
       <c r="S7">
-        <v>4539.803586739999</v>
+        <v>7.688133502952068</v>
       </c>
       <c r="T7">
-        <v>8527.409073162315</v>
+        <v>1413.304769652894</v>
       </c>
       <c r="U7">
-        <v>12836.0853122686</v>
+        <v>1401.687045354819</v>
       </c>
       <c r="V7">
-        <v>4495.201435180165</v>
+        <v>2793.166958921303</v>
       </c>
       <c r="W7">
-        <v>8607.909252037165</v>
+        <v>5692.989933996741</v>
       </c>
       <c r="X7">
-        <v>4.537053836648434</v>
+        <v>4098.261929726622</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>4244.851559981368</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>14675.45229393338</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1290,109 +1410,127 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>91205.49053696096</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>14943.9515056175</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>70617</v>
+        <v>8592.231961103546</v>
       </c>
       <c r="AK7">
+        <v>13967.09700454149</v>
+      </c>
+      <c r="AL7">
+        <v>4711.874827296044</v>
+      </c>
+      <c r="AM7">
+        <v>9115.845382973794</v>
+      </c>
+      <c r="AN7">
+        <v>-623.8918846131741</v>
+      </c>
+      <c r="AO7">
+        <v>15446.82260692199</v>
+      </c>
+      <c r="AP7">
+        <v>72376.99999999999</v>
+      </c>
+      <c r="AQ7">
         <v>1</v>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN7">
+      <c r="AT7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7055.978623030602</v>
+        <v>3718.87152391113</v>
       </c>
       <c r="B8">
-        <v>658.0971022827987</v>
+        <v>15585.11374743716</v>
       </c>
       <c r="C8">
-        <v>694.6405172845723</v>
+        <v>10265.94033506506</v>
       </c>
       <c r="D8">
-        <v>1461.901597382059</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2775.429505547813</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2003.413253497369</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2128.483902372799</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>7112.353742865938</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>864.7820184082931</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>534.9394382879976</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>289.4044277212809</v>
+        <v>1134.207043737552</v>
       </c>
       <c r="L8">
-        <v>508.6047277447634</v>
+        <v>718.5058036512343</v>
       </c>
       <c r="M8">
-        <v>188.1266358318425</v>
+        <v>409.3070685748366</v>
       </c>
       <c r="N8">
-        <v>166.8692233486534</v>
+        <v>743.8857841604375</v>
       </c>
       <c r="O8">
-        <v>102.8009826158962</v>
+        <v>274.2015803761227</v>
       </c>
       <c r="P8">
-        <v>19.01240532662744</v>
+        <v>228.2977692715781</v>
       </c>
       <c r="Q8">
-        <v>2676.471891751842</v>
+        <v>171.1867835946275</v>
       </c>
       <c r="R8">
-        <v>16834.31962123335</v>
+        <v>35.45759893714428</v>
       </c>
       <c r="S8">
-        <v>2791.030633136061</v>
+        <v>3.822091607597435</v>
       </c>
       <c r="T8">
-        <v>3974.037179980825</v>
+        <v>629.0231694871098</v>
       </c>
       <c r="U8">
-        <v>6776.607986017718</v>
+        <v>623.7173383534863</v>
       </c>
       <c r="V8">
-        <v>2125.417895730911</v>
+        <v>1258.76621782777</v>
       </c>
       <c r="W8">
-        <v>4346.315230301805</v>
+        <v>2593.789901332736</v>
       </c>
       <c r="X8">
-        <v>1.932032466487138</v>
+        <v>1872.092994116727</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1941.42943891366</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>6666.294687405671</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1416,109 +1554,127 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>32091.1446598515</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>7055.978623030602</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>33325</v>
+        <v>3914.953465279405</v>
       </c>
       <c r="AK8">
+        <v>6350.986869785656</v>
+      </c>
+      <c r="AL8">
+        <v>2113.981229566216</v>
+      </c>
+      <c r="AM8">
+        <v>4132.465333404386</v>
+      </c>
+      <c r="AN8">
+        <v>-469.6646472729238</v>
+      </c>
+      <c r="AO8">
+        <v>7039.575283796057</v>
+      </c>
+      <c r="AP8">
+        <v>32964.00000000002</v>
+      </c>
+      <c r="AQ8">
         <v>1</v>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN8">
+      <c r="AT8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>4959.05270938281</v>
+        <v>2653.291099481167</v>
       </c>
       <c r="B9">
-        <v>448.3787792187727</v>
+        <v>11044.60387085342</v>
       </c>
       <c r="C9">
-        <v>505.2949039455043</v>
+        <v>7297.172302853192</v>
       </c>
       <c r="D9">
-        <v>958.5674960624361</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1975.329203129207</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1374.383834149462</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1519.89576084179</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>5053.002868682915</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>553.301078443079</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>359.5496577186767</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>219.0359544517079</v>
+        <v>807.1619190422782</v>
       </c>
       <c r="L9">
-        <v>361.9513449530327</v>
+        <v>519.525939244073</v>
       </c>
       <c r="M9">
-        <v>128.2158425391876</v>
+        <v>292.5201205634676</v>
       </c>
       <c r="N9">
-        <v>116.5542740465708</v>
+        <v>532.7836854563377</v>
       </c>
       <c r="O9">
-        <v>84.15791478580415</v>
+        <v>191.9953798276828</v>
       </c>
       <c r="P9">
-        <v>10.74615752829608</v>
+        <v>160.7443577140226</v>
       </c>
       <c r="Q9">
-        <v>1838.289413389254</v>
+        <v>121.3454702274673</v>
       </c>
       <c r="R9">
-        <v>11834.85284603009</v>
+        <v>24.03071396181242</v>
       </c>
       <c r="S9">
-        <v>1611.279036302912</v>
+        <v>3.183513444025097</v>
       </c>
       <c r="T9">
-        <v>2671.888725993288</v>
+        <v>450.2980183868556</v>
       </c>
       <c r="U9">
-        <v>4572.859842270028</v>
+        <v>448.3058030712161</v>
       </c>
       <c r="V9">
-        <v>1621.249107664738</v>
+        <v>899.2835424471876</v>
       </c>
       <c r="W9">
-        <v>3139.695475768681</v>
+        <v>1830.658026112912</v>
       </c>
       <c r="X9">
-        <v>4.777188922899388</v>
+        <v>1310.324705280142</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1375.249304471567</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>4730.484471083543</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1542,109 +1698,127 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>36818.74504763403</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>4959.05270938281</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>23520</v>
+        <v>2773.909704303874</v>
       </c>
       <c r="AK9">
+        <v>4523.262598549318</v>
+      </c>
+      <c r="AL9">
+        <v>1477.8466064854</v>
+      </c>
+      <c r="AM9">
+        <v>2876.99140749888</v>
+      </c>
+      <c r="AN9">
+        <v>1768.285013046903</v>
+      </c>
+      <c r="AO9">
+        <v>4999.836102438775</v>
+      </c>
+      <c r="AP9">
+        <v>23443</v>
+      </c>
+      <c r="AQ9">
         <v>1</v>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN9">
+      <c r="AT9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>5384.672611875868</v>
+        <v>3141.294756836604</v>
       </c>
       <c r="B10">
-        <v>499.794601044742</v>
+        <v>13075.64623958967</v>
       </c>
       <c r="C10">
-        <v>579.9596385468811</v>
+        <v>8487.087281502341</v>
       </c>
       <c r="D10">
-        <v>1041.052761778672</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2131.009370342561</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1539.431471648774</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1601.945224536191</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>5436.594522327115</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>586.1451740740436</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>374.8722429078512</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>216.6211212248637</v>
+        <v>956.9039931517992</v>
       </c>
       <c r="L10">
-        <v>421.4082475936104</v>
+        <v>612.7642560351715</v>
       </c>
       <c r="M10">
-        <v>143.9039636278419</v>
+        <v>341.367653480331</v>
       </c>
       <c r="N10">
-        <v>117.6880950534344</v>
+        <v>630.0954842284481</v>
       </c>
       <c r="O10">
-        <v>103.6139240279315</v>
+        <v>228.2687101285466</v>
       </c>
       <c r="P10">
-        <v>25.10683196917054</v>
+        <v>188.7756431751495</v>
       </c>
       <c r="Q10">
-        <v>1992.325551921805</v>
+        <v>150.16243824264</v>
       </c>
       <c r="R10">
-        <v>12829.78759022493</v>
+        <v>29.58020548908611</v>
       </c>
       <c r="S10">
-        <v>1629.731832128078</v>
+        <v>3.376372905432678</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>535.5888475522571</v>
       </c>
       <c r="U10">
-        <v>7863.939535140155</v>
+        <v>528.9994161205734</v>
       </c>
       <c r="V10">
-        <v>1710.805611553178</v>
+        <v>1065.657154051585</v>
       </c>
       <c r="W10">
-        <v>3211.814221822162</v>
+        <v>2153.746945261613</v>
       </c>
       <c r="X10">
-        <v>2.965951443058081</v>
+        <v>1573.426431496682</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1625.038647774611</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>5593.188797332343</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1668,109 +1842,127 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>21414.087117622</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>5384.672611875868</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>26601</v>
+        <v>0</v>
       </c>
       <c r="AK10">
+        <v>8487.087281502341</v>
+      </c>
+      <c r="AL10">
+        <v>1766.000433750859</v>
+      </c>
+      <c r="AM10">
+        <v>3451.348337007669</v>
+      </c>
+      <c r="AN10">
+        <v>-2031.420703405399</v>
+      </c>
+      <c r="AO10">
+        <v>5893.851105904267</v>
+      </c>
+      <c r="AP10">
+        <v>28990</v>
+      </c>
+      <c r="AQ10">
         <v>1</v>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN10">
+      <c r="AT10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1664.093302028713</v>
+        <v>908.973563260373</v>
       </c>
       <c r="B11">
-        <v>175.9919344214421</v>
+        <v>3815.597624175392</v>
       </c>
       <c r="C11">
-        <v>161.1130626750386</v>
+        <v>2460.738220337514</v>
       </c>
       <c r="D11">
-        <v>340.3699698092295</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>676.0750608359474</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>491.8610078681895</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>498.3783740991578</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1685.951739059758</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>201.4175227548024</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>123.3627928977173</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>71.34628083214068</v>
+        <v>280.6162853713219</v>
       </c>
       <c r="L11">
-        <v>121.7840498780426</v>
+        <v>175.160643768842</v>
       </c>
       <c r="M11">
-        <v>48.76242048434902</v>
+        <v>99.49342158395902</v>
       </c>
       <c r="N11">
-        <v>41.85745703218226</v>
+        <v>183.4690578021951</v>
       </c>
       <c r="O11">
-        <v>32.55669714650269</v>
+        <v>64.09804354068062</v>
       </c>
       <c r="P11">
-        <v>7.409492426529392</v>
+        <v>54.86405266986853</v>
       </c>
       <c r="Q11">
-        <v>649.3404547501668</v>
+        <v>42.03278693551501</v>
       </c>
       <c r="R11">
-        <v>4029.741148768763</v>
+        <v>8.389591637629046</v>
       </c>
       <c r="S11">
-        <v>512.8737188655057</v>
+        <v>0.8496799503618574</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>156.2886897585459</v>
       </c>
       <c r="U11">
-        <v>2490.322288196756</v>
+        <v>156.4777614306715</v>
       </c>
       <c r="V11">
-        <v>493.5855978013372</v>
+        <v>312.83975371067</v>
       </c>
       <c r="W11">
-        <v>967.561371882945</v>
+        <v>629.0116745956088</v>
       </c>
       <c r="X11">
-        <v>0.8437412979005426</v>
+        <v>454.4368482226147</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>473.8994944133555</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1632.643402043925</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1794,55 +1986,73 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>5401.662008210153</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>1664.093302028713</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>8176</v>
+        <v>0</v>
       </c>
       <c r="AK11">
+        <v>2460.738220337514</v>
+      </c>
+      <c r="AL11">
+        <v>518.9502704929976</v>
+      </c>
+      <c r="AM11">
+        <v>1010.520273330423</v>
+      </c>
+      <c r="AN11">
+        <v>189.3893555946213</v>
+      </c>
+      <c r="AO11">
+        <v>1723.319783331574</v>
+      </c>
+      <c r="AP11">
+        <v>8501.000000000004</v>
+      </c>
+      <c r="AQ11">
         <v>1</v>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN11">
+      <c r="AT11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>501.3030782802057</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>42.91985023787152</v>
+        <v>1365.969345793506</v>
       </c>
       <c r="C12">
-        <v>44.14425792222138</v>
+        <v>706.8338162543037</v>
       </c>
       <c r="D12">
-        <v>90.58229514412071</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>176.1819943944799</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>134.2361963204181</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>149.2513994595371</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>474.7490360588455</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1872,76 +2082,94 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1380.173265029784</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>168.7538675532993</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>44.43821730586777</v>
       </c>
       <c r="U12">
-        <v>712.3776832976081</v>
+        <v>44.35543830119437</v>
       </c>
       <c r="V12">
-        <v>153.0668980988829</v>
+        <v>91.95579942289226</v>
       </c>
       <c r="W12">
-        <v>304.2266445781134</v>
+        <v>183.1791911440442</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>132.1963337793465</v>
       </c>
       <c r="Y12">
-        <v>79.17297988844113</v>
+        <v>138.3804600368413</v>
       </c>
       <c r="Z12">
-        <v>54.31438417604174</v>
+        <v>472.0572528551738</v>
       </c>
       <c r="AA12">
-        <v>27.19129151476994</v>
+        <v>79.44862051861172</v>
       </c>
       <c r="AB12">
-        <v>58.16400641731721</v>
+        <v>50.43836734460571</v>
       </c>
       <c r="AC12">
-        <v>19.35316185326344</v>
+        <v>27.94388310543938</v>
       </c>
       <c r="AD12">
-        <v>15.45452126233817</v>
+        <v>52.11680382181854</v>
       </c>
       <c r="AE12">
-        <v>11.91571693781759</v>
+        <v>18.55004865432165</v>
       </c>
       <c r="AF12">
-        <v>2.265725391263152</v>
+        <v>16.18810303064485</v>
       </c>
       <c r="AG12">
-        <v>0.2764480510375403</v>
+        <v>12.06639958091976</v>
       </c>
       <c r="AH12">
-        <v>-108.7315545851448</v>
+        <v>2.376129875727274</v>
       </c>
       <c r="AI12">
-        <v>501.3030782802057</v>
+        <v>0.2782970160565612</v>
       </c>
       <c r="AJ12">
-        <v>2734</v>
+        <v>0</v>
       </c>
       <c r="AK12">
+        <v>706.8338162543037</v>
+      </c>
+      <c r="AL12">
+        <v>151.444622802809</v>
+      </c>
+      <c r="AM12">
+        <v>293.6836191396639</v>
+      </c>
+      <c r="AN12">
+        <v>-51.23241269933529</v>
+      </c>
+      <c r="AO12">
+        <v>501.4994959455808</v>
+      </c>
+      <c r="AP12">
+        <v>2794.999999999999</v>
+      </c>
+      <c r="AQ12">
         <v>1</v>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AN12">
+      <c r="AT12">
         <v>1</v>
       </c>
     </row>

--- a/pds_new_all_MA_check2.xlsx
+++ b/pds_new_all_MA_check2.xlsx
@@ -450,107 +450,107 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>release_length_10</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_11</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_12</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_13</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_14</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_15</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_16</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_17</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_18</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_19</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_20</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_21</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_22</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_23</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_24</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_bsb</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_bsb</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_scup</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_scup</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>keep_length_27</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_10</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_11</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_12</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_13</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_14</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_15</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_16</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_17</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_18</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_19</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_20</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_21</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_22</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_23</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_24</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>release_length_27</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_bsb</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_bsb</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_scup</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_scup</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -591,13 +591,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>4831.48795934204</v>
+        <v>12244.1123275405</v>
       </c>
       <c r="B2">
-        <v>20248.09118414009</v>
+        <v>7743.029021621867</v>
       </c>
       <c r="C2">
-        <v>13314.46590367108</v>
+        <v>15788.97634983567</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -618,55 +618,55 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7484.220678318811</v>
       </c>
       <c r="K2">
-        <v>1476.35908335493</v>
+        <v>1385.343891851045</v>
       </c>
       <c r="L2">
-        <v>927.1709224194839</v>
+        <v>883.4778942880383</v>
       </c>
       <c r="M2">
-        <v>535.5996177292226</v>
+        <v>572.5884978882434</v>
       </c>
       <c r="N2">
-        <v>972.8992865095026</v>
+        <v>1065.295761823014</v>
       </c>
       <c r="O2">
-        <v>344.5782990984126</v>
+        <v>326.6590549871497</v>
       </c>
       <c r="P2">
-        <v>294.7365197662454</v>
+        <v>259.0567482784506</v>
       </c>
       <c r="Q2">
-        <v>227.6688944090515</v>
+        <v>215.767229017998</v>
       </c>
       <c r="R2">
-        <v>47.18504360528689</v>
+        <v>47.4981852520466</v>
       </c>
       <c r="S2">
-        <v>5.290292449905227</v>
+        <v>456.2457448844264</v>
       </c>
       <c r="T2">
-        <v>829.2975247615952</v>
+        <v>438.8891990214336</v>
       </c>
       <c r="U2">
-        <v>837.8894303616063</v>
+        <v>933.0976564041523</v>
       </c>
       <c r="V2">
-        <v>1664.858669477209</v>
+        <v>2354.147454787628</v>
       </c>
       <c r="W2">
-        <v>3345.219164832923</v>
+        <v>1583.94088843098</v>
       </c>
       <c r="X2">
-        <v>2396.055883109335</v>
+        <v>1976.708078093247</v>
       </c>
       <c r="Y2">
-        <v>2518.027087229983</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>8656.74342436744</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -690,31 +690,31 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>5872.608445278569</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>9916.367904557097</v>
       </c>
       <c r="AJ2">
-        <v>5110.738707424188</v>
+        <v>3071.426170364294</v>
       </c>
       <c r="AK2">
-        <v>8203.727196246889</v>
+        <v>5933.968285576462</v>
       </c>
       <c r="AL2">
-        <v>2740.433832880939</v>
+        <v>4.204385835706861</v>
       </c>
       <c r="AM2">
-        <v>5323.374553412938</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>371.0326758438868</v>
+        <v>-157807.3957349616</v>
       </c>
       <c r="AO2">
-        <v>9140.19875039117</v>
+        <v>10094.52870683688</v>
       </c>
       <c r="AP2">
-        <v>42795.00000000002</v>
+        <v>44924</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -735,13 +735,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>4039.90627802644</v>
+        <v>10374.24149769308</v>
       </c>
       <c r="B3">
-        <v>16909.89488339469</v>
+        <v>6342.01295295257</v>
       </c>
       <c r="C3">
-        <v>11053.19266470277</v>
+        <v>11710.40127963305</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -762,55 +762,55 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6372.521201064466</v>
       </c>
       <c r="K3">
-        <v>1225.95808384976</v>
+        <v>1186.646743902764</v>
       </c>
       <c r="L3">
-        <v>788.7369730120608</v>
+        <v>838.1724188634585</v>
       </c>
       <c r="M3">
-        <v>447.9111841006013</v>
+        <v>405.7296683082353</v>
       </c>
       <c r="N3">
-        <v>816.5772010442365</v>
+        <v>848.9560548195144</v>
       </c>
       <c r="O3">
-        <v>288.728102334688</v>
+        <v>272.8669514613885</v>
       </c>
       <c r="P3">
-        <v>244.625470220304</v>
+        <v>241.7537880442516</v>
       </c>
       <c r="Q3">
-        <v>183.8474682551903</v>
+        <v>172.5997539108586</v>
       </c>
       <c r="R3">
-        <v>38.95768236484871</v>
+        <v>32.25664772065199</v>
       </c>
       <c r="S3">
-        <v>4.564112844750963</v>
+        <v>418.6953412476054</v>
       </c>
       <c r="T3">
-        <v>692.8717976880301</v>
+        <v>393.3862822506137</v>
       </c>
       <c r="U3">
-        <v>692.8251123403259</v>
+        <v>716.1515498843752</v>
       </c>
       <c r="V3">
-        <v>1386.4198261814</v>
+        <v>1794.845811460261</v>
       </c>
       <c r="W3">
-        <v>2785.763569624034</v>
+        <v>1410.092598259099</v>
       </c>
       <c r="X3">
-        <v>2022.474436317678</v>
+        <v>1608.841369850617</v>
       </c>
       <c r="Y3">
-        <v>2101.121204723706</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>7228.418936519516</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -834,31 +834,31 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>4676.836058652247</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>7033.565220980805</v>
       </c>
       <c r="AJ3">
-        <v>4226.690664994053</v>
+        <v>2652.009842562944</v>
       </c>
       <c r="AK3">
-        <v>6826.501999708712</v>
+        <v>5308.280711309898</v>
       </c>
       <c r="AL3">
-        <v>2274.039588976283</v>
+        <v>2.738269597494113</v>
       </c>
       <c r="AM3">
-        <v>4450.635815773585</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-4930.482955710334</v>
+        <v>-141958.4365253937</v>
       </c>
       <c r="AO3">
-        <v>7588.353100165408</v>
+        <v>8409.701007502428</v>
       </c>
       <c r="AP3">
-        <v>35473</v>
+        <v>37015</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -879,13 +879,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>8200.023366353686</v>
+        <v>21214.74463732955</v>
       </c>
       <c r="B4">
-        <v>34214.10015774358</v>
+        <v>13243.25560537706</v>
       </c>
       <c r="C4">
-        <v>22429.18037666485</v>
+        <v>24899.12723656738</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -906,55 +906,55 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>13044.67364461456</v>
       </c>
       <c r="K4">
-        <v>2483.545301706071</v>
+        <v>2430.460367748903</v>
       </c>
       <c r="L4">
-        <v>1599.206637165757</v>
+        <v>1630.392728309198</v>
       </c>
       <c r="M4">
-        <v>907.4736200247708</v>
+        <v>915.6094355534178</v>
       </c>
       <c r="N4">
-        <v>1659.541042359582</v>
+        <v>1765.325852972084</v>
       </c>
       <c r="O4">
-        <v>581.9023137089974</v>
+        <v>547.205205197171</v>
       </c>
       <c r="P4">
-        <v>510.0768175269486</v>
+        <v>467.7643479744304</v>
       </c>
       <c r="Q4">
-        <v>371.6497039788538</v>
+        <v>337.3806544366523</v>
       </c>
       <c r="R4">
-        <v>77.47956501203377</v>
+        <v>70.24406410457337</v>
       </c>
       <c r="S4">
-        <v>9.148364870671307</v>
+        <v>849.1633195886886</v>
       </c>
       <c r="T4">
-        <v>1406.511406561859</v>
+        <v>768.5875541660784</v>
       </c>
       <c r="U4">
-        <v>1394.865381762839</v>
+        <v>1494.103344750401</v>
       </c>
       <c r="V4">
-        <v>2805.919694773197</v>
+        <v>3916.49138400582</v>
       </c>
       <c r="W4">
-        <v>5643.431818561555</v>
+        <v>2817.511772626201</v>
       </c>
       <c r="X4">
-        <v>4098.712106594931</v>
+        <v>3397.398230239868</v>
       </c>
       <c r="Y4">
-        <v>4281.44609737526</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>14583.21365211394</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -978,31 +978,31 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>9427.202085243138</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>15471.92515132425</v>
       </c>
       <c r="AJ4">
-        <v>8527.884153431318</v>
+        <v>5212.307883207515</v>
       </c>
       <c r="AK4">
-        <v>13901.29622323353</v>
+        <v>9633.307079217313</v>
       </c>
       <c r="AL4">
-        <v>4723.255178123205</v>
+        <v>5.688336418559197</v>
       </c>
       <c r="AM4">
-        <v>9118.305182626729</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>3257.202388863906</v>
+        <v>-305869.9683214058</v>
       </c>
       <c r="AO4">
-        <v>15500.7926428484</v>
+        <v>17398.91640832529</v>
       </c>
       <c r="AP4">
-        <v>72735.00000000004</v>
+        <v>76807</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>5117.165731229729</v>
+        <v>13516.08518038747</v>
       </c>
       <c r="B5">
-        <v>21425.27011504617</v>
+        <v>8027.668288763807</v>
       </c>
       <c r="C5">
-        <v>14029.46127339443</v>
+        <v>16285.73593584586</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1050,55 +1050,55 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8361.873568322148</v>
       </c>
       <c r="K5">
-        <v>1548.345158993469</v>
+        <v>1556.187902800328</v>
       </c>
       <c r="L5">
-        <v>1008.342290180164</v>
+        <v>1032.036634779599</v>
       </c>
       <c r="M5">
-        <v>559.9802093738061</v>
+        <v>579.6956597849388</v>
       </c>
       <c r="N5">
-        <v>1045.147647016658</v>
+        <v>1065.985135370764</v>
       </c>
       <c r="O5">
-        <v>357.2230224084736</v>
+        <v>356.0496086163005</v>
       </c>
       <c r="P5">
-        <v>304.2366151846287</v>
+        <v>315.6119668638318</v>
       </c>
       <c r="Q5">
-        <v>244.6879819018012</v>
+        <v>207.4532197167953</v>
       </c>
       <c r="R5">
-        <v>43.67820610873881</v>
+        <v>37.80344680266892</v>
       </c>
       <c r="S5">
-        <v>5.524600061989583</v>
+        <v>476.2753733638332</v>
       </c>
       <c r="T5">
-        <v>866.5991291441724</v>
+        <v>441.7396917093915</v>
       </c>
       <c r="U5">
-        <v>880.0604446993301</v>
+        <v>953.6339769485657</v>
       </c>
       <c r="V5">
-        <v>1746.407359996293</v>
+        <v>2375.979701771163</v>
       </c>
       <c r="W5">
-        <v>3551.739204313936</v>
+        <v>1749.041970830836</v>
       </c>
       <c r="X5">
-        <v>2548.622859458289</v>
+        <v>2030.997574140018</v>
       </c>
       <c r="Y5">
-        <v>2661.184871342502</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>9170.65624609165</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1122,31 +1122,31 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>6064.129260527072</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>10221.60667531878</v>
       </c>
       <c r="AJ5">
-        <v>5363.775140087961</v>
+        <v>3284.171994176201</v>
       </c>
       <c r="AK5">
-        <v>8665.686133306466</v>
+        <v>6532.7607052763</v>
       </c>
       <c r="AL5">
-        <v>2944.817173554056</v>
+        <v>3.388037330100373</v>
       </c>
       <c r="AM5">
-        <v>5677.95920694901</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>-3464.432971041828</v>
+        <v>-198724.8083194257</v>
       </c>
       <c r="AO5">
-        <v>9680.938879083811</v>
+        <v>10842.29639878767</v>
       </c>
       <c r="AP5">
-        <v>45357.99999999999</v>
+        <v>48186</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>14127.74157046532</v>
+        <v>35806.92087732641</v>
       </c>
       <c r="B6">
-        <v>59158.2453892042</v>
+        <v>21400.86198713092</v>
       </c>
       <c r="C6">
-        <v>38883.90199425042</v>
+        <v>40451.10994262894</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1194,55 +1194,55 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>22339.16864765771</v>
       </c>
       <c r="K6">
-        <v>4313.777483105206</v>
+        <v>3660.666187695783</v>
       </c>
       <c r="L6">
-        <v>2772.666937996824</v>
+        <v>2787.8760014911</v>
       </c>
       <c r="M6">
-        <v>1531.301387843828</v>
+        <v>1603.161318821385</v>
       </c>
       <c r="N6">
-        <v>2837.277324329815</v>
+        <v>2999.763597474032</v>
       </c>
       <c r="O6">
-        <v>1028.806566636926</v>
+        <v>984.305562441653</v>
       </c>
       <c r="P6">
-        <v>847.9633841591783</v>
+        <v>732.0309517845005</v>
       </c>
       <c r="Q6">
-        <v>656.4858773189916</v>
+        <v>550.6372171285776</v>
       </c>
       <c r="R6">
-        <v>126.0165835544543</v>
+        <v>140.0459528276502</v>
       </c>
       <c r="S6">
-        <v>13.44602552010046</v>
+        <v>1111.856456468516</v>
       </c>
       <c r="T6">
-        <v>2381.371078186461</v>
+        <v>1235.161238508206</v>
       </c>
       <c r="U6">
-        <v>2448.682480751071</v>
+        <v>2597.967566844045</v>
       </c>
       <c r="V6">
-        <v>4847.270705313741</v>
+        <v>6096.869070135245</v>
       </c>
       <c r="W6">
-        <v>9764.664622936763</v>
+        <v>4707.963534849649</v>
       </c>
       <c r="X6">
-        <v>7097.042120515618</v>
+        <v>5651.044120325256</v>
       </c>
       <c r="Y6">
-        <v>7311.572417479378</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>25307.64196402116</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1266,31 +1266,31 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>15998.63070682032</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>24452.47923580862</v>
       </c>
       <c r="AJ6">
-        <v>14834.67863106105</v>
+        <v>9592.388543805244</v>
       </c>
       <c r="AK6">
-        <v>24049.22336318936</v>
+        <v>18524.75081142755</v>
       </c>
       <c r="AL6">
-        <v>7928.679525218415</v>
+        <v>9.265440004021631</v>
       </c>
       <c r="AM6">
-        <v>15564.13445466011</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>2436.48916606425</v>
+        <v>-464061.7925089919</v>
       </c>
       <c r="AO6">
-        <v>26776.36796363871</v>
+        <v>29562.61984608558</v>
       </c>
       <c r="AP6">
-        <v>125505.9999999999</v>
+        <v>131640</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>8193.99470323485</v>
+        <v>21401.74988675935</v>
       </c>
       <c r="B7">
-        <v>34319.71449156712</v>
+        <v>12924.78485471295</v>
       </c>
       <c r="C7">
-        <v>22559.32896564504</v>
+        <v>25454.50390157384</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1338,55 +1338,55 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>13439.44920440997</v>
       </c>
       <c r="K7">
-        <v>2483.25594445149</v>
+        <v>2482.867329109026</v>
       </c>
       <c r="L7">
-        <v>1596.568358469256</v>
+        <v>1583.578492441415</v>
       </c>
       <c r="M7">
-        <v>901.6844209825079</v>
+        <v>929.1316235966094</v>
       </c>
       <c r="N7">
-        <v>1656.537058198055</v>
+        <v>1479.245988063355</v>
       </c>
       <c r="O7">
-        <v>597.1322368695545</v>
+        <v>578.8728317693854</v>
       </c>
       <c r="P7">
-        <v>506.8227463142774</v>
+        <v>459.798811341056</v>
       </c>
       <c r="Q7">
-        <v>368.3556651260567</v>
+        <v>354.5547747765503</v>
       </c>
       <c r="R7">
-        <v>75.95013932070033</v>
+        <v>72.7939853076665</v>
       </c>
       <c r="S7">
-        <v>7.688133502952068</v>
+        <v>870.6878271818531</v>
       </c>
       <c r="T7">
-        <v>1413.304769652894</v>
+        <v>789.957566256267</v>
       </c>
       <c r="U7">
-        <v>1401.687045354819</v>
+        <v>1550.674418691668</v>
       </c>
       <c r="V7">
-        <v>2793.166958921303</v>
+        <v>3677.245229562212</v>
       </c>
       <c r="W7">
-        <v>5692.989933996741</v>
+        <v>2636.805567179207</v>
       </c>
       <c r="X7">
-        <v>4098.261929726622</v>
+        <v>3399.414245841747</v>
       </c>
       <c r="Y7">
-        <v>4244.851559981368</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>14675.45229393338</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1410,31 +1410,31 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>9622.88901570794</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>15831.6148858659</v>
       </c>
       <c r="AJ7">
-        <v>8592.231961103546</v>
+        <v>4707.002384186613</v>
       </c>
       <c r="AK7">
-        <v>13967.09700454149</v>
+        <v>9061.228188124384</v>
       </c>
       <c r="AL7">
-        <v>4711.874827296044</v>
+        <v>21.45684594431547</v>
       </c>
       <c r="AM7">
-        <v>9115.845382973794</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>-623.8918846131741</v>
+        <v>-281765.9433793469</v>
       </c>
       <c r="AO7">
-        <v>15446.82260692199</v>
+        <v>17059.83143746785</v>
       </c>
       <c r="AP7">
-        <v>72376.99999999999</v>
+        <v>75674</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>3718.87152391113</v>
+        <v>9573.131284488616</v>
       </c>
       <c r="B8">
-        <v>15585.11374743716</v>
+        <v>5920.664122343852</v>
       </c>
       <c r="C8">
-        <v>10265.94033506506</v>
+        <v>11482.09748499391</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1482,55 +1482,55 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5966.988422523395</v>
       </c>
       <c r="K8">
-        <v>1134.207043737552</v>
+        <v>1014.654508353139</v>
       </c>
       <c r="L8">
-        <v>718.5058036512343</v>
+        <v>726.8492375980117</v>
       </c>
       <c r="M8">
-        <v>409.3070685748366</v>
+        <v>407.1247900790098</v>
       </c>
       <c r="N8">
-        <v>743.8857841604375</v>
+        <v>757.4442957076947</v>
       </c>
       <c r="O8">
-        <v>274.2015803761227</v>
+        <v>253.09400323217</v>
       </c>
       <c r="P8">
-        <v>228.2977692715781</v>
+        <v>239.4227060896297</v>
       </c>
       <c r="Q8">
-        <v>171.1867835946275</v>
+        <v>169.243843776316</v>
       </c>
       <c r="R8">
-        <v>35.45759893714428</v>
+        <v>37.05968825996086</v>
       </c>
       <c r="S8">
-        <v>3.822091607597435</v>
+        <v>379.4277631246451</v>
       </c>
       <c r="T8">
-        <v>629.0231694871098</v>
+        <v>315.66188545019</v>
       </c>
       <c r="U8">
-        <v>623.7173383534863</v>
+        <v>742.3444204785357</v>
       </c>
       <c r="V8">
-        <v>1258.76621782777</v>
+        <v>1671.397776078055</v>
       </c>
       <c r="W8">
-        <v>2593.789901332736</v>
+        <v>1281.738904107058</v>
       </c>
       <c r="X8">
-        <v>1872.092994116727</v>
+        <v>1530.093373105368</v>
       </c>
       <c r="Y8">
-        <v>1941.42943891366</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>6666.294687405671</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1554,31 +1554,31 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>4455.214580078421</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>7026.882904915486</v>
       </c>
       <c r="AJ8">
-        <v>3914.953465279405</v>
+        <v>2335.520216013237</v>
       </c>
       <c r="AK8">
-        <v>6350.986869785656</v>
+        <v>4521.807198879877</v>
       </c>
       <c r="AL8">
-        <v>2113.981229566216</v>
+        <v>1.249788869289657</v>
       </c>
       <c r="AM8">
-        <v>4132.465333404386</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>-469.6646472729238</v>
+        <v>-143834.7207273088</v>
       </c>
       <c r="AO8">
-        <v>7039.575283796057</v>
+        <v>7919.130651633785</v>
       </c>
       <c r="AP8">
-        <v>32964.00000000002</v>
+        <v>34944</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -1599,13 +1599,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>2653.291099481167</v>
+        <v>6815.29002235511</v>
       </c>
       <c r="B9">
-        <v>11044.60387085342</v>
+        <v>4108.744151895682</v>
       </c>
       <c r="C9">
-        <v>7297.172302853192</v>
+        <v>7703.120847131803</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1626,55 +1626,55 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4225.124965362648</v>
       </c>
       <c r="K9">
-        <v>807.1619190422782</v>
+        <v>742.8327186236862</v>
       </c>
       <c r="L9">
-        <v>519.525939244073</v>
+        <v>488.9232846272564</v>
       </c>
       <c r="M9">
-        <v>292.5201205634676</v>
+        <v>276.5141959829603</v>
       </c>
       <c r="N9">
-        <v>532.7836854563377</v>
+        <v>609.0967319727477</v>
       </c>
       <c r="O9">
-        <v>191.9953798276828</v>
+        <v>179.3145802830768</v>
       </c>
       <c r="P9">
-        <v>160.7443577140226</v>
+        <v>149.1091079522652</v>
       </c>
       <c r="Q9">
-        <v>121.3454702274673</v>
+        <v>111.4700719273158</v>
       </c>
       <c r="R9">
-        <v>24.03071396181242</v>
+        <v>30.31704904241925</v>
       </c>
       <c r="S9">
-        <v>3.183513444025097</v>
+        <v>256.9420227396469</v>
       </c>
       <c r="T9">
-        <v>450.2980183868556</v>
+        <v>240.7702913898181</v>
       </c>
       <c r="U9">
-        <v>448.3058030712161</v>
+        <v>487.7342236731542</v>
       </c>
       <c r="V9">
-        <v>899.2835424471876</v>
+        <v>1245.869107673216</v>
       </c>
       <c r="W9">
-        <v>1830.658026112912</v>
+        <v>850.7302329006268</v>
       </c>
       <c r="X9">
-        <v>1310.324705280142</v>
+        <v>1026.69827351922</v>
       </c>
       <c r="Y9">
-        <v>1375.249304471567</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>4730.484471083543</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1701,28 +1701,28 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>7703.120847131803</v>
       </c>
       <c r="AJ9">
-        <v>2773.909704303874</v>
+        <v>1741.602252212686</v>
       </c>
       <c r="AK9">
-        <v>4523.262598549318</v>
+        <v>3413.358095803213</v>
       </c>
       <c r="AL9">
-        <v>1477.8466064854</v>
+        <v>2.587316580734066</v>
       </c>
       <c r="AM9">
-        <v>2876.99140749888</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>1768.285013046903</v>
+        <v>-65667.91604444497</v>
       </c>
       <c r="AO9">
-        <v>4999.836102438775</v>
+        <v>5374.952808415578</v>
       </c>
       <c r="AP9">
-        <v>23443</v>
+        <v>25068</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -1743,13 +1743,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>3141.294756836604</v>
+        <v>7722.895174676676</v>
       </c>
       <c r="B10">
-        <v>13075.64623958967</v>
+        <v>4814.353667932644</v>
       </c>
       <c r="C10">
-        <v>8487.087281502341</v>
+        <v>8719.805239656258</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1770,55 +1770,55 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4790.694846329823</v>
       </c>
       <c r="K10">
-        <v>956.9039931517992</v>
+        <v>831.785327043803</v>
       </c>
       <c r="L10">
-        <v>612.7642560351715</v>
+        <v>616.7474028588721</v>
       </c>
       <c r="M10">
-        <v>341.367653480331</v>
+        <v>306.063715691301</v>
       </c>
       <c r="N10">
-        <v>630.0954842284481</v>
+        <v>618.2970562977364</v>
       </c>
       <c r="O10">
-        <v>228.2687101285466</v>
+        <v>201.8075722770466</v>
       </c>
       <c r="P10">
-        <v>188.7756431751495</v>
+        <v>197.7809947866373</v>
       </c>
       <c r="Q10">
-        <v>150.16243824264</v>
+        <v>124.6370847520765</v>
       </c>
       <c r="R10">
-        <v>29.58020548908611</v>
+        <v>33.04823878968259</v>
       </c>
       <c r="S10">
-        <v>3.376372905432678</v>
+        <v>319.6805692645624</v>
       </c>
       <c r="T10">
-        <v>535.5888475522571</v>
+        <v>296.159282253429</v>
       </c>
       <c r="U10">
-        <v>528.9994161205734</v>
+        <v>587.7603534802632</v>
       </c>
       <c r="V10">
-        <v>1065.657154051585</v>
+        <v>1415.28372999768</v>
       </c>
       <c r="W10">
-        <v>2153.746945261613</v>
+        <v>1042.723634998413</v>
       </c>
       <c r="X10">
-        <v>1573.426431496682</v>
+        <v>1152.746097938295</v>
       </c>
       <c r="Y10">
-        <v>1625.038647774611</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>5593.188797332343</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1845,28 +1845,28 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>8719.805239656258</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1771.514439742379</v>
       </c>
       <c r="AK10">
-        <v>8487.087281502341</v>
+        <v>3568.707788671291</v>
       </c>
       <c r="AL10">
-        <v>1766.000433750859</v>
+        <v>2.032935849698246</v>
       </c>
       <c r="AM10">
-        <v>3451.348337007669</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>-2031.420703405399</v>
+        <v>-100056.6114852132</v>
       </c>
       <c r="AO10">
-        <v>5893.851105904267</v>
+        <v>6519.199097225658</v>
       </c>
       <c r="AP10">
-        <v>28990</v>
+        <v>30625</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -1887,13 +1887,13 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>908.973563260373</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>3815.597624175392</v>
+        <v>3281.192526401487</v>
       </c>
       <c r="C11">
-        <v>2460.738220337514</v>
+        <v>2023.403669253369</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1917,100 +1917,100 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>280.6162853713219</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>175.160643768842</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>99.49342158395902</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>183.4690578021951</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>64.09804354068062</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>54.86405266986853</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>42.03278693551501</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>8.389591637629046</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.8496799503618574</v>
+        <v>87.09963407208034</v>
       </c>
       <c r="T11">
-        <v>156.2886897585459</v>
+        <v>71.59399384795563</v>
       </c>
       <c r="U11">
-        <v>156.4777614306715</v>
+        <v>143.3062816298839</v>
       </c>
       <c r="V11">
-        <v>312.83975371067</v>
+        <v>383.200752800693</v>
       </c>
       <c r="W11">
-        <v>629.0116745956088</v>
+        <v>276.9527642941669</v>
       </c>
       <c r="X11">
-        <v>454.4368482226147</v>
+        <v>323.8042087155411</v>
       </c>
       <c r="Y11">
-        <v>473.8994944133555</v>
+        <v>1237.098779656262</v>
       </c>
       <c r="Z11">
-        <v>1632.643402043925</v>
+        <v>233.9381193634148</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>142.3055547588562</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>93.55582143746732</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>148.9209103683221</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>54.71159605871896</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>46.99832380432419</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>31.69353170888656</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>5.852125982163172</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2023.403669253369</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>413.8403511608909</v>
       </c>
       <c r="AK11">
-        <v>2460.738220337514</v>
+        <v>819.1617678478534</v>
       </c>
       <c r="AL11">
-        <v>518.9502704929976</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>1010.520273330423</v>
+        <v>0.1601279027514666</v>
       </c>
       <c r="AN11">
-        <v>189.3893555946213</v>
+        <v>26216.88371201648</v>
       </c>
       <c r="AO11">
-        <v>1723.319783331574</v>
+        <v>1539.391961197674</v>
       </c>
       <c r="AP11">
-        <v>8501.000000000004</v>
+        <v>9039</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1365.969345793506</v>
+        <v>1037.759602494415</v>
       </c>
       <c r="C12">
-        <v>706.8338162543037</v>
+        <v>686.2716571816827</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2085,76 +2085,76 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>23.20243699797358</v>
       </c>
       <c r="T12">
-        <v>44.43821730586777</v>
+        <v>27.80317715288656</v>
       </c>
       <c r="U12">
-        <v>44.35543830119437</v>
+        <v>45.17230862028857</v>
       </c>
       <c r="V12">
-        <v>91.95579942289226</v>
+        <v>118.5008633561013</v>
       </c>
       <c r="W12">
-        <v>183.1791911440442</v>
+        <v>86.58850322291664</v>
       </c>
       <c r="X12">
-        <v>132.1963337793465</v>
+        <v>95.33937503755264</v>
       </c>
       <c r="Y12">
-        <v>138.3804600368413</v>
+        <v>395.5236773965474</v>
       </c>
       <c r="Z12">
-        <v>472.0572528551738</v>
+        <v>73.65051947596287</v>
       </c>
       <c r="AA12">
-        <v>79.44862051861172</v>
+        <v>45.08793148188918</v>
       </c>
       <c r="AB12">
-        <v>50.43836734460571</v>
+        <v>28.99661309831246</v>
       </c>
       <c r="AC12">
-        <v>27.94388310543938</v>
+        <v>50.86118562937907</v>
       </c>
       <c r="AD12">
-        <v>52.11680382181854</v>
+        <v>18.73982864815635</v>
       </c>
       <c r="AE12">
-        <v>18.55004865432165</v>
+        <v>12.67180284500232</v>
       </c>
       <c r="AF12">
-        <v>16.18810303064485</v>
+        <v>12.53376846441196</v>
       </c>
       <c r="AG12">
-        <v>12.06639958091976</v>
+        <v>2.923950387333511</v>
       </c>
       <c r="AH12">
-        <v>2.376129875727274</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>0.2782970160565612</v>
+        <v>686.2716571816827</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>152.2975217638915</v>
       </c>
       <c r="AK12">
-        <v>706.8338162543037</v>
+        <v>289.3680666930094</v>
       </c>
       <c r="AL12">
-        <v>151.444622802809</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>293.6836191396639</v>
+        <v>0.1636606797004244</v>
       </c>
       <c r="AN12">
-        <v>-51.23241269933529</v>
+        <v>621.2345109138732</v>
       </c>
       <c r="AO12">
-        <v>501.4994959455808</v>
+        <v>497.0211357458268</v>
       </c>
       <c r="AP12">
-        <v>2794.999999999999</v>
+        <v>2930</v>
       </c>
       <c r="AQ12">
         <v>1</v>

--- a/pds_new_all_MA_check2.xlsx
+++ b/pds_new_all_MA_check2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,140 +450,210 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>keep_length_27</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>release_length_10</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>release_length_11</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>release_length_12</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>release_length_13</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>release_length_14</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>release_length_15</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>release_length_16</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>release_length_17</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>release_length_18</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>release_length_19</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>release_length_20</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>release_length_21</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>release_length_22</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>release_length_23</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>release_length_24</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_27</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>tot_keep_bsb</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>tot_rel_bsb</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>tot_keep_scup</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>tot_rel_scup</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_27</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_27</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>keep_length_29</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_29</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_25</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_25</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_28</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_28</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_6</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_6</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_30</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_30</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_31</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_31</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_7</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_7</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
           <t>change_CS</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>observed_trips</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>n_choice_occasions</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>sim</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>period</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>state</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>alt_regs</t>
         </is>
@@ -591,13 +661,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>12244.1123275405</v>
+        <v>9313.92137301253</v>
       </c>
       <c r="B2">
-        <v>7743.029021621867</v>
+        <v>5790.736665508464</v>
       </c>
       <c r="C2">
-        <v>15788.97634983567</v>
+        <v>13869.25296166431</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -618,52 +688,52 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7484.220678318811</v>
+        <v>5832.686181354888</v>
       </c>
       <c r="K2">
-        <v>1385.343891851045</v>
+        <v>973.8471930153253</v>
       </c>
       <c r="L2">
-        <v>883.4778942880383</v>
+        <v>727.2198010270361</v>
       </c>
       <c r="M2">
-        <v>572.5884978882434</v>
+        <v>410.6695030458253</v>
       </c>
       <c r="N2">
-        <v>1065.295761823014</v>
+        <v>748.1383022769578</v>
       </c>
       <c r="O2">
-        <v>326.6590549871497</v>
+        <v>245.294485752284</v>
       </c>
       <c r="P2">
-        <v>259.0567482784506</v>
+        <v>167.9664571091837</v>
       </c>
       <c r="Q2">
-        <v>215.767229017998</v>
+        <v>173.5672717427945</v>
       </c>
       <c r="R2">
-        <v>47.4981852520466</v>
+        <v>26.63021945017062</v>
       </c>
       <c r="S2">
-        <v>456.2457448844264</v>
+        <v>7.742234409140434</v>
       </c>
       <c r="T2">
-        <v>438.8891990214336</v>
+        <v>459.9939090771765</v>
       </c>
       <c r="U2">
-        <v>933.0976564041523</v>
+        <v>365.0921591300676</v>
       </c>
       <c r="V2">
-        <v>2354.147454787628</v>
+        <v>658.0471228126658</v>
       </c>
       <c r="W2">
-        <v>1583.94088843098</v>
+        <v>1586.268570293045</v>
       </c>
       <c r="X2">
-        <v>1976.708078093247</v>
+        <v>1291.959881499319</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1429.375022696191</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -690,58 +760,100 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>5872.608445278569</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>9916.367904557097</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3071.426170364294</v>
+        <v>5506.892294789262</v>
       </c>
       <c r="AK2">
-        <v>5933.968285576462</v>
+        <v>8362.360666875053</v>
       </c>
       <c r="AL2">
-        <v>4.204385835706861</v>
+        <v>2926.401647081531</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>5703.120577558699</v>
       </c>
       <c r="AN2">
-        <v>-157807.3957349616</v>
+        <v>0.1246500144958924</v>
       </c>
       <c r="AO2">
-        <v>10094.52870683688</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>44924</v>
+        <v>0.03507381442936912</v>
       </c>
       <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>-102459.4190480336</v>
+      </c>
+      <c r="BC2">
+        <v>9864.161266226722</v>
+      </c>
+      <c r="BD2">
+        <v>43988</v>
+      </c>
+      <c r="BE2">
         <v>1</v>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="BG2" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT2">
+      <c r="BH2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>10374.24149769308</v>
+        <v>7360.412802049873</v>
       </c>
       <c r="B3">
-        <v>6342.01295295257</v>
+        <v>4793.1191005772</v>
       </c>
       <c r="C3">
-        <v>11710.40127963305</v>
+        <v>12177.76262658892</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -762,52 +874,52 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6372.521201064466</v>
+        <v>4618.776681611354</v>
       </c>
       <c r="K3">
-        <v>1186.646743902764</v>
+        <v>802.3970633983626</v>
       </c>
       <c r="L3">
-        <v>838.1724188634585</v>
+        <v>508.3984750441875</v>
       </c>
       <c r="M3">
-        <v>405.7296683082353</v>
+        <v>309.1158137667484</v>
       </c>
       <c r="N3">
-        <v>848.9560548195144</v>
+        <v>592.5797027758049</v>
       </c>
       <c r="O3">
-        <v>272.8669514613885</v>
+        <v>228.1408994651829</v>
       </c>
       <c r="P3">
-        <v>241.7537880442516</v>
+        <v>150.7999294215844</v>
       </c>
       <c r="Q3">
-        <v>172.5997539108586</v>
+        <v>119.3571336635881</v>
       </c>
       <c r="R3">
-        <v>32.25664772065199</v>
+        <v>28.65345961472858</v>
       </c>
       <c r="S3">
-        <v>418.6953412476054</v>
+        <v>2.028193573171901</v>
       </c>
       <c r="T3">
-        <v>393.3862822506137</v>
+        <v>376.609192098203</v>
       </c>
       <c r="U3">
-        <v>716.1515498843752</v>
+        <v>324.1417056789122</v>
       </c>
       <c r="V3">
-        <v>1794.845811460261</v>
+        <v>643.1706351797715</v>
       </c>
       <c r="W3">
-        <v>1410.092598259099</v>
+        <v>1345.45230926403</v>
       </c>
       <c r="X3">
-        <v>1608.841369850617</v>
+        <v>976.6303165843783</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1127.114941771905</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -834,58 +946,100 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>4676.836058652247</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>7033.565220980805</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2652.009842562944</v>
+        <v>4772.624745219596</v>
       </c>
       <c r="AK3">
-        <v>5308.280711309898</v>
+        <v>7405.137881369322</v>
       </c>
       <c r="AL3">
-        <v>2.738269597494113</v>
+        <v>2453.582001500746</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>4899.827122962069</v>
       </c>
       <c r="AN3">
-        <v>-141958.4365253937</v>
+        <v>0.1654497151587543</v>
       </c>
       <c r="AO3">
-        <v>8409.701007502428</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>37015</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>-67074.80454231131</v>
+      </c>
+      <c r="BC3">
+        <v>8081.277170462704</v>
+      </c>
+      <c r="BD3">
+        <v>36321</v>
+      </c>
+      <c r="BE3">
         <v>1</v>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT3">
+      <c r="BH3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>21214.74463732955</v>
+        <v>15945.48691522057</v>
       </c>
       <c r="B4">
-        <v>13243.25560537706</v>
+        <v>10007.11040843359</v>
       </c>
       <c r="C4">
-        <v>24899.12723656738</v>
+        <v>24383.72080144505</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -906,52 +1060,52 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13044.67364461456</v>
+        <v>9907.788314712727</v>
       </c>
       <c r="K4">
-        <v>2430.460367748903</v>
+        <v>1715.840947404719</v>
       </c>
       <c r="L4">
-        <v>1630.392728309198</v>
+        <v>1205.023801976229</v>
       </c>
       <c r="M4">
-        <v>915.6094355534178</v>
+        <v>793.2739023583849</v>
       </c>
       <c r="N4">
-        <v>1765.325852972084</v>
+        <v>1220.189889656357</v>
       </c>
       <c r="O4">
-        <v>547.205205197171</v>
+        <v>465.5672993334659</v>
       </c>
       <c r="P4">
-        <v>467.7643479744304</v>
+        <v>300.6008045531505</v>
       </c>
       <c r="Q4">
-        <v>337.3806544366523</v>
+        <v>265.4784437271443</v>
       </c>
       <c r="R4">
-        <v>70.24406410457337</v>
+        <v>56.2766024672845</v>
       </c>
       <c r="S4">
-        <v>849.1633195886886</v>
+        <v>15.44690903110335</v>
       </c>
       <c r="T4">
-        <v>768.5875541660784</v>
+        <v>826.8069940051424</v>
       </c>
       <c r="U4">
-        <v>1494.103344750401</v>
+        <v>599.2520627987275</v>
       </c>
       <c r="V4">
-        <v>3916.49138400582</v>
+        <v>1191.078981233971</v>
       </c>
       <c r="W4">
-        <v>2817.511772626201</v>
+        <v>2862.001592818821</v>
       </c>
       <c r="X4">
-        <v>3397.398230239868</v>
+        <v>2096.338953433371</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2429.340866766408</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -978,58 +1132,100 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>9427.202085243138</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>15471.92515132425</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>5212.307883207515</v>
+        <v>9471.513144924598</v>
       </c>
       <c r="AK4">
-        <v>9633.307079217313</v>
+        <v>14912.20765652045</v>
       </c>
       <c r="AL4">
-        <v>5.688336418559197</v>
+        <v>5312.106398141518</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>9906.753047141721</v>
       </c>
       <c r="AN4">
-        <v>-305869.9683214058</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>17398.91640832529</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>76807</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>2.290957377151757</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>-202822.5525435669</v>
+      </c>
+      <c r="BC4">
+        <v>16890.36866675497</v>
+      </c>
+      <c r="BD4">
+        <v>75290</v>
+      </c>
+      <c r="BE4">
         <v>1</v>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT4">
+      <c r="BH4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>13516.08518038747</v>
+        <v>9857.609208872464</v>
       </c>
       <c r="B5">
-        <v>8027.668288763807</v>
+        <v>6206.282886383463</v>
       </c>
       <c r="C5">
-        <v>16285.73593584586</v>
+        <v>14959.66417156715</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1050,52 +1246,52 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8361.873568322148</v>
+        <v>6110.546095284695</v>
       </c>
       <c r="K5">
-        <v>1556.187902800328</v>
+        <v>1050.672400146581</v>
       </c>
       <c r="L5">
-        <v>1032.036634779599</v>
+        <v>754.9152473205859</v>
       </c>
       <c r="M5">
-        <v>579.6956597849388</v>
+        <v>430.1785895565025</v>
       </c>
       <c r="N5">
-        <v>1065.985135370764</v>
+        <v>836.8139665597413</v>
       </c>
       <c r="O5">
-        <v>356.0496086163005</v>
+        <v>253.3618320139628</v>
       </c>
       <c r="P5">
-        <v>315.6119668638318</v>
+        <v>225.1260614959812</v>
       </c>
       <c r="Q5">
-        <v>207.4532197167953</v>
+        <v>159.5222344201877</v>
       </c>
       <c r="R5">
-        <v>37.80344680266892</v>
+        <v>28.77801382623888</v>
       </c>
       <c r="S5">
-        <v>476.2753733638332</v>
+        <v>4.20982293310327</v>
       </c>
       <c r="T5">
-        <v>441.7396917093915</v>
+        <v>500.9302379181892</v>
       </c>
       <c r="U5">
-        <v>953.6339769485657</v>
+        <v>397.1320477310613</v>
       </c>
       <c r="V5">
-        <v>2375.979701771163</v>
+        <v>720.2899138212996</v>
       </c>
       <c r="W5">
-        <v>1749.041970830836</v>
+        <v>1751.019146734612</v>
       </c>
       <c r="X5">
-        <v>2030.997574140018</v>
+        <v>1327.514222790551</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1509.397317387751</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1122,58 +1318,100 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>6064.129260527072</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>10221.60667531878</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>3284.171994176201</v>
+        <v>5732.806718757129</v>
       </c>
       <c r="AK5">
-        <v>6532.7607052763</v>
+        <v>9226.857452810018</v>
       </c>
       <c r="AL5">
-        <v>3.388037330100373</v>
+        <v>2902.359964398447</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>5658.889363405002</v>
       </c>
       <c r="AN5">
-        <v>-198724.8083194257</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>10842.29639878767</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>48186</v>
+        <v>0.4774051906510627</v>
       </c>
       <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>3.00754012423309</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>-114882.0677615222</v>
+      </c>
+      <c r="BC5">
+        <v>10468.45092871934</v>
+      </c>
+      <c r="BD5">
+        <v>46988</v>
+      </c>
+      <c r="BE5">
         <v>1</v>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT5">
+      <c r="BH5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>35806.92087732641</v>
+        <v>28430.71133507727</v>
       </c>
       <c r="B6">
-        <v>21400.86198713092</v>
+        <v>17934.14517587884</v>
       </c>
       <c r="C6">
-        <v>40451.10994262894</v>
+        <v>42259.67778931322</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1194,52 +1432,52 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>22339.16864765771</v>
+        <v>17692.31498237041</v>
       </c>
       <c r="K6">
-        <v>3660.666187695783</v>
+        <v>3008.300020722491</v>
       </c>
       <c r="L6">
-        <v>2787.8760014911</v>
+        <v>2239.615138350002</v>
       </c>
       <c r="M6">
-        <v>1603.161318821385</v>
+        <v>1143.585705412429</v>
       </c>
       <c r="N6">
-        <v>2999.763597474032</v>
+        <v>2277.436052648489</v>
       </c>
       <c r="O6">
-        <v>984.305562441653</v>
+        <v>809.502154988335</v>
       </c>
       <c r="P6">
-        <v>732.0309517845005</v>
+        <v>584.8139178660568</v>
       </c>
       <c r="Q6">
-        <v>550.6372171285776</v>
+        <v>537.6469105833938</v>
       </c>
       <c r="R6">
-        <v>140.0459528276502</v>
+        <v>122.4468373722558</v>
       </c>
       <c r="S6">
-        <v>1111.856456468516</v>
+        <v>6.514912178024366</v>
       </c>
       <c r="T6">
-        <v>1235.161238508206</v>
+        <v>1415.32090570002</v>
       </c>
       <c r="U6">
-        <v>2597.967566844045</v>
+        <v>1221.136919732039</v>
       </c>
       <c r="V6">
-        <v>6096.869070135245</v>
+        <v>2069.851237419774</v>
       </c>
       <c r="W6">
-        <v>4707.963534849649</v>
+        <v>5203.380626522912</v>
       </c>
       <c r="X6">
-        <v>5651.044120325256</v>
+        <v>3470.223244560792</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>4554.232241943299</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1266,58 +1504,100 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>15998.63070682032</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>24452.47923580862</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>9592.388543805244</v>
+        <v>16266.59606268118</v>
       </c>
       <c r="AK6">
-        <v>18524.75081142755</v>
+        <v>25993.08172663205</v>
       </c>
       <c r="AL6">
-        <v>9.265440004021631</v>
+        <v>8350.852616560962</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>16427.01407127485</v>
       </c>
       <c r="AN6">
-        <v>-464061.7925089919</v>
+        <v>0.2007767689620539</v>
       </c>
       <c r="AO6">
-        <v>29562.61984608558</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>131640</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>8.333925816426369</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>-322712.8938094265</v>
+      </c>
+      <c r="BC6">
+        <v>29098.80040255889</v>
+      </c>
+      <c r="BD6">
+        <v>128655</v>
+      </c>
+      <c r="BE6">
         <v>1</v>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="BF6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="BG6" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT6">
+      <c r="BH6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>21401.74988675935</v>
+        <v>15449.58347050027</v>
       </c>
       <c r="B7">
-        <v>12924.78485471295</v>
+        <v>9801.063564436141</v>
       </c>
       <c r="C7">
-        <v>25454.50390157384</v>
+        <v>23361.38757512973</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1338,52 +1618,52 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13439.44920440997</v>
+        <v>9485.779268751749</v>
       </c>
       <c r="K7">
-        <v>2482.867329109026</v>
+        <v>1758.370136518502</v>
       </c>
       <c r="L7">
-        <v>1583.578492441415</v>
+        <v>1226.255826363016</v>
       </c>
       <c r="M7">
-        <v>929.1316235966094</v>
+        <v>611.3484583860385</v>
       </c>
       <c r="N7">
-        <v>1479.245988063355</v>
+        <v>1282.199734461656</v>
       </c>
       <c r="O7">
-        <v>578.8728317693854</v>
+        <v>445.6979997951692</v>
       </c>
       <c r="P7">
-        <v>459.798811341056</v>
+        <v>315.293161255429</v>
       </c>
       <c r="Q7">
-        <v>354.5547747765503</v>
+        <v>269.7256210486726</v>
       </c>
       <c r="R7">
-        <v>72.7939853076665</v>
+        <v>54.91326392004451</v>
       </c>
       <c r="S7">
-        <v>870.6878271818531</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>789.957566256267</v>
+        <v>792.3936158859963</v>
       </c>
       <c r="U7">
-        <v>1550.674418691668</v>
+        <v>622.7535475998955</v>
       </c>
       <c r="V7">
-        <v>3677.245229562212</v>
+        <v>1053.317417521032</v>
       </c>
       <c r="W7">
-        <v>2636.805567179207</v>
+        <v>2936.031329386511</v>
       </c>
       <c r="X7">
-        <v>3399.414245841747</v>
+        <v>1956.585968617617</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>2439.98168542509</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1410,58 +1690,100 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>9622.88901570794</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>15831.6148858659</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>4707.002384186613</v>
+        <v>9166.392670989999</v>
       </c>
       <c r="AK7">
-        <v>9061.228188124384</v>
+        <v>14194.99490413973</v>
       </c>
       <c r="AL7">
-        <v>21.45684594431547</v>
+        <v>4750.005109101049</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>9187.269840917423</v>
       </c>
       <c r="AN7">
-        <v>-281765.9433793469</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>17059.83143746785</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>75674</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>-144558.5108128129</v>
+      </c>
+      <c r="BC7">
+        <v>16434.80384806496</v>
+      </c>
+      <c r="BD7">
+        <v>73503</v>
+      </c>
+      <c r="BE7">
         <v>1</v>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="BF7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="BG7" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT7">
+      <c r="BH7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>9573.131284488616</v>
+        <v>7060.740002803435</v>
       </c>
       <c r="B8">
-        <v>5920.664122343852</v>
+        <v>4378.941226067961</v>
       </c>
       <c r="C8">
-        <v>11482.09748499391</v>
+        <v>10902.37096643799</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1482,52 +1804,52 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5966.988422523395</v>
+        <v>4301.197820691366</v>
       </c>
       <c r="K8">
-        <v>1014.654508353139</v>
+        <v>802.1230964559959</v>
       </c>
       <c r="L8">
-        <v>726.8492375980117</v>
+        <v>522.2108886750764</v>
       </c>
       <c r="M8">
-        <v>407.1247900790098</v>
+        <v>332.6928835289486</v>
       </c>
       <c r="N8">
-        <v>757.4442957076947</v>
+        <v>599.506554732592</v>
       </c>
       <c r="O8">
-        <v>253.09400323217</v>
+        <v>200.3414985763298</v>
       </c>
       <c r="P8">
-        <v>239.4227060896297</v>
+        <v>149.6874724620843</v>
       </c>
       <c r="Q8">
-        <v>169.243843776316</v>
+        <v>125.5092296881421</v>
       </c>
       <c r="R8">
-        <v>37.05968825996086</v>
+        <v>22.04470458074983</v>
       </c>
       <c r="S8">
-        <v>379.4277631246451</v>
+        <v>4.139800822882645</v>
       </c>
       <c r="T8">
-        <v>315.66188545019</v>
+        <v>342.2260149560642</v>
       </c>
       <c r="U8">
-        <v>742.3444204785357</v>
+        <v>312.7261371872926</v>
       </c>
       <c r="V8">
-        <v>1671.397776078055</v>
+        <v>503.351426066941</v>
       </c>
       <c r="W8">
-        <v>1281.738904107058</v>
+        <v>1236.744757376131</v>
       </c>
       <c r="X8">
-        <v>1530.093373105368</v>
+        <v>974.5897914599734</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1009.146730610264</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1554,58 +1876,100 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>4455.214580078421</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>7026.882904915486</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>2335.520216013237</v>
+        <v>4161.717905910935</v>
       </c>
       <c r="AK8">
-        <v>4521.807198879877</v>
+        <v>6740.653060527056</v>
       </c>
       <c r="AL8">
-        <v>1.249788869289657</v>
+        <v>2275.311421389446</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>4706.716290666651</v>
       </c>
       <c r="AN8">
-        <v>-143834.7207273088</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>7919.130651633785</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>34944</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0.1059707150001264</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0.156368411295331</v>
+      </c>
+      <c r="AV8">
+        <v>1.180081874268016</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>-77155.99362353886</v>
+      </c>
+      <c r="BC8">
+        <v>7573.136932567669</v>
+      </c>
+      <c r="BD8">
+        <v>33614</v>
+      </c>
+      <c r="BE8">
         <v>1</v>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="BF8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="BG8" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT8">
+      <c r="BH8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>6815.29002235511</v>
+        <v>4992.375624068538</v>
       </c>
       <c r="B9">
-        <v>4108.744151895682</v>
+        <v>3122.682832600197</v>
       </c>
       <c r="C9">
-        <v>7703.120847131803</v>
+        <v>7659.812658449828</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1626,52 +1990,52 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4225.124965362648</v>
+        <v>3090.072939870779</v>
       </c>
       <c r="K9">
-        <v>742.8327186236862</v>
+        <v>526.7325659168096</v>
       </c>
       <c r="L9">
-        <v>488.9232846272564</v>
+        <v>366.5005075902172</v>
       </c>
       <c r="M9">
-        <v>276.5141959829603</v>
+        <v>198.5610685872665</v>
       </c>
       <c r="N9">
-        <v>609.0967319727477</v>
+        <v>413.8966694365385</v>
       </c>
       <c r="O9">
-        <v>179.3145802830768</v>
+        <v>150.8394661309943</v>
       </c>
       <c r="P9">
-        <v>149.1091079522652</v>
+        <v>115.8948512666886</v>
       </c>
       <c r="Q9">
-        <v>111.4700719273158</v>
+        <v>108.8266932345585</v>
       </c>
       <c r="R9">
-        <v>30.31704904241925</v>
+        <v>19.39377533739861</v>
       </c>
       <c r="S9">
-        <v>256.9420227396469</v>
+        <v>1.657086697287664</v>
       </c>
       <c r="T9">
-        <v>240.7702913898181</v>
+        <v>228.0174868290678</v>
       </c>
       <c r="U9">
-        <v>487.7342236731542</v>
+        <v>200.2708219922364</v>
       </c>
       <c r="V9">
-        <v>1245.869107673216</v>
+        <v>374.6332039384187</v>
       </c>
       <c r="W9">
-        <v>850.7302329006268</v>
+        <v>977.228975929795</v>
       </c>
       <c r="X9">
-        <v>1026.69827351922</v>
+        <v>602.7277209742085</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>739.8046229364707</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1701,55 +2065,97 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>7703.120847131803</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1741.602252212686</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>3413.358095803213</v>
+        <v>7659.812658449828</v>
       </c>
       <c r="AL9">
-        <v>2.587316580734066</v>
+        <v>1488.44625183093</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>2988.723707063407</v>
       </c>
       <c r="AN9">
-        <v>-65667.91604444497</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>5374.952808415578</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>25068</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>-25625.90847776814</v>
+      </c>
+      <c r="BC9">
+        <v>5187.098101132779</v>
+      </c>
+      <c r="BD9">
+        <v>24230</v>
+      </c>
+      <c r="BE9">
         <v>1</v>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="BF9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="BG9" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT9">
+      <c r="BH9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>7722.895174676676</v>
+        <v>6248.258159701425</v>
       </c>
       <c r="B10">
-        <v>4814.353667932644</v>
+        <v>3814.512432236379</v>
       </c>
       <c r="C10">
-        <v>8719.805239656258</v>
+        <v>9451.906902437675</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1770,52 +2176,52 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4790.694846329823</v>
+        <v>3910.836889097969</v>
       </c>
       <c r="K10">
-        <v>831.785327043803</v>
+        <v>603.7718713343102</v>
       </c>
       <c r="L10">
-        <v>616.7474028588721</v>
+        <v>487.7262525684351</v>
       </c>
       <c r="M10">
-        <v>306.063715691301</v>
+        <v>289.6608170586645</v>
       </c>
       <c r="N10">
-        <v>618.2970562977364</v>
+        <v>524.4943670581084</v>
       </c>
       <c r="O10">
-        <v>201.8075722770466</v>
+        <v>158.4536684374168</v>
       </c>
       <c r="P10">
-        <v>197.7809947866373</v>
+        <v>127.3051084973148</v>
       </c>
       <c r="Q10">
-        <v>124.6370847520765</v>
+        <v>119.6198751656094</v>
       </c>
       <c r="R10">
-        <v>33.04823878968259</v>
+        <v>24.3699612612487</v>
       </c>
       <c r="S10">
-        <v>319.6805692645624</v>
+        <v>2.019349222348422</v>
       </c>
       <c r="T10">
-        <v>296.159282253429</v>
+        <v>290.331945985275</v>
       </c>
       <c r="U10">
-        <v>587.7603534802632</v>
+        <v>204.7895222704649</v>
       </c>
       <c r="V10">
-        <v>1415.28372999768</v>
+        <v>451.5002038204552</v>
       </c>
       <c r="W10">
-        <v>1042.723634998413</v>
+        <v>1103.816513633146</v>
       </c>
       <c r="X10">
-        <v>1152.746097938295</v>
+        <v>792.234421118386</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>971.839825408652</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1845,43 +2251,85 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>8719.805239656258</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1771.514439742379</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>3568.707788671291</v>
+        <v>9451.906902437675</v>
       </c>
       <c r="AL10">
-        <v>2.032935849698246</v>
+        <v>1775.973951217335</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>3565.869064844168</v>
       </c>
       <c r="AN10">
-        <v>-100056.6114852132</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>6519.199097225658</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>30625</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>-72829.36427751265</v>
+      </c>
+      <c r="BC10">
+        <v>6357.361300522397</v>
+      </c>
+      <c r="BD10">
+        <v>29798</v>
+      </c>
+      <c r="BE10">
         <v>1</v>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="BF10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="BG10" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT10">
+      <c r="BH10">
         <v>1</v>
       </c>
     </row>
@@ -1890,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>3281.192526401487</v>
+        <v>2410.443178575436</v>
       </c>
       <c r="C11">
-        <v>2023.403669253369</v>
+        <v>2042.015568119264</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1941,91 +2389,133 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>87.09963407208034</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>71.59399384795563</v>
+        <v>76.76708703110322</v>
       </c>
       <c r="U11">
-        <v>143.3062816298839</v>
+        <v>58.52537959672626</v>
       </c>
       <c r="V11">
-        <v>383.200752800693</v>
+        <v>104.4149572865475</v>
       </c>
       <c r="W11">
-        <v>276.9527642941669</v>
+        <v>268.1350577122438</v>
       </c>
       <c r="X11">
-        <v>323.8042087155411</v>
+        <v>204.8537762490851</v>
       </c>
       <c r="Y11">
-        <v>1237.098779656262</v>
+        <v>232.7221942924038</v>
       </c>
       <c r="Z11">
-        <v>233.9381193634148</v>
+        <v>920.5412657705213</v>
       </c>
       <c r="AA11">
-        <v>142.3055547588562</v>
+        <v>157.5024240856111</v>
       </c>
       <c r="AB11">
-        <v>93.55582143746732</v>
+        <v>96.57624701008224</v>
       </c>
       <c r="AC11">
-        <v>148.9209103683221</v>
+        <v>65.22144559507626</v>
       </c>
       <c r="AD11">
-        <v>54.71159605871896</v>
+        <v>127.6934446472963</v>
       </c>
       <c r="AE11">
-        <v>46.99832380432419</v>
+        <v>37.64468407269052</v>
       </c>
       <c r="AF11">
-        <v>31.69353170888656</v>
+        <v>29.13134441625061</v>
       </c>
       <c r="AG11">
-        <v>5.852125982163172</v>
+        <v>26.35034221209007</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>3.734100046941019</v>
       </c>
       <c r="AI11">
-        <v>2023.403669253369</v>
+        <v>0.619380817975734</v>
       </c>
       <c r="AJ11">
-        <v>413.8403511608909</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>819.1617678478534</v>
+        <v>2042.015568119264</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>447.7105703871619</v>
       </c>
       <c r="AM11">
-        <v>0.1601279027514666</v>
+        <v>890.3981138544473</v>
       </c>
       <c r="AN11">
-        <v>26216.88371201648</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>1539.391961197674</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>9039</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0.01004773279093841</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>31483.26725844585</v>
+      </c>
+      <c r="BC11">
+        <v>1500.836465166061</v>
+      </c>
+      <c r="BD11">
+        <v>8809</v>
+      </c>
+      <c r="BE11">
         <v>1</v>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="BF11" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="BG11" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT11">
+      <c r="BH11">
         <v>1</v>
       </c>
     </row>
@@ -2034,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1037.759602494415</v>
+        <v>793.235319355839</v>
       </c>
       <c r="C12">
-        <v>686.2716571816827</v>
+        <v>729.6611335861397</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2085,91 +2575,133 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>23.20243699797358</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>27.80317715288656</v>
+        <v>24.7597109639863</v>
       </c>
       <c r="U12">
-        <v>45.17230862028857</v>
+        <v>19.87250463019401</v>
       </c>
       <c r="V12">
-        <v>118.5008633561013</v>
+        <v>37.97889695389776</v>
       </c>
       <c r="W12">
-        <v>86.58850322291664</v>
+        <v>85.37028866163611</v>
       </c>
       <c r="X12">
-        <v>95.33937503755264</v>
+        <v>65.76796134936757</v>
       </c>
       <c r="Y12">
-        <v>395.5236773965474</v>
+        <v>77.05634055258699</v>
       </c>
       <c r="Z12">
-        <v>73.65051947596287</v>
+        <v>296.9975680336174</v>
       </c>
       <c r="AA12">
-        <v>45.08793148188918</v>
+        <v>53.07939611691073</v>
       </c>
       <c r="AB12">
-        <v>28.99661309831246</v>
+        <v>34.47353423451163</v>
       </c>
       <c r="AC12">
-        <v>50.86118562937907</v>
+        <v>20.55056499516702</v>
       </c>
       <c r="AD12">
-        <v>18.73982864815635</v>
+        <v>40.55117642835243</v>
       </c>
       <c r="AE12">
-        <v>12.67180284500232</v>
+        <v>14.85170122916071</v>
       </c>
       <c r="AF12">
-        <v>12.53376846441196</v>
+        <v>9.850488800189117</v>
       </c>
       <c r="AG12">
-        <v>2.923950387333511</v>
+        <v>9.186035092469064</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.422574555733754</v>
       </c>
       <c r="AI12">
-        <v>686.2716571816827</v>
+        <v>0.4420209874352875</v>
       </c>
       <c r="AJ12">
-        <v>152.2975217638915</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>289.3680666930094</v>
+        <v>729.6611335861397</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>148.2615016701587</v>
       </c>
       <c r="AM12">
-        <v>0.1636606797004244</v>
+        <v>288.2083940464726</v>
       </c>
       <c r="AN12">
-        <v>621.2345109138732</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>497.0211357458268</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>2930</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0.02455577062315885</v>
+      </c>
+      <c r="BB12">
+        <v>1034.117816321957</v>
+      </c>
+      <c r="BC12">
+        <v>496.3880509916347</v>
+      </c>
+      <c r="BD12">
+        <v>2890</v>
+      </c>
+      <c r="BE12">
         <v>1</v>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="BF12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="BG12" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="AT12">
+      <c r="BH12">
         <v>1</v>
       </c>
     </row>
